--- a/migforecasting/cities19-21/4/d9.xlsx
+++ b/migforecasting/cities19-21/4/d9.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities19-21\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21030" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="162">
   <si>
     <t>НАСЕЛЕНИЕ</t>
   </si>
@@ -275,23 +275,6 @@
     <t xml:space="preserve">СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА г. НИЖНЕГО НОВГОРОДА  И ГОРОДОВ С ЧИСЛЕННОСТЬЮ НАСЕЛЕНИЯ </t>
   </si>
   <si>
-    <r>
-      <t>Нижний Новгород</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1)</t>
-    </r>
-  </si>
-  <si>
     <t>Арзамас</t>
   </si>
   <si>
@@ -1386,6 +1369,9 @@
       </rPr>
       <t xml:space="preserve"> Без учета итогов сплошного наблюдения за деятельностью субьектов малого и среднего предпринимательства.</t>
     </r>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1468,15 +1454,6 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1704,6 +1681,15 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="70"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1718,15 +1704,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="60"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="60"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="60"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="70"/>
     </xf>
@@ -1739,11 +1716,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2051,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,33 +2050,37 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -2147,10 +2128,10 @@
     </row>
     <row r="6" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="C6" s="8">
         <v>1263.7</v>
@@ -2257,7 +2238,7 @@
     </row>
     <row r="10" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8">
         <v>728</v>
@@ -2321,7 +2302,7 @@
     </row>
     <row r="12" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="8">
         <v>9.6999999999999993</v>
@@ -2353,7 +2334,7 @@
     </row>
     <row r="13" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="8">
         <v>13.5</v>
@@ -2385,7 +2366,7 @@
     </row>
     <row r="14" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="8">
         <v>-3.8</v>
@@ -2420,7 +2401,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="12">
         <v>1177</v>
@@ -2438,7 +2419,7 @@
         <v>27</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="12">
         <v>558</v>
@@ -2448,22 +2429,22 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8">
         <v>387.6</v>
@@ -2498,7 +2479,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="12">
         <v>34039</v>
@@ -2530,7 +2511,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="12">
         <v>33603</v>
@@ -2558,25 +2539,25 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="C21" s="8">
         <v>52245.4</v>
@@ -2585,7 +2566,7 @@
         <v>57902.2</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="8">
         <v>36960.1</v>
@@ -2594,7 +2575,7 @@
         <v>39750.800000000003</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="8">
         <v>40245.1</v>
@@ -2605,31 +2586,31 @@
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="8">
         <v>17422.5</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="J22" s="9">
         <v>17200.900000000001</v>
@@ -2637,7 +2618,7 @@
     </row>
     <row r="23" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="8">
         <v>396.6</v>
@@ -2649,13 +2630,13 @@
         <v>380.4</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" s="8">
         <v>83.1</v>
@@ -2701,7 +2682,7 @@
     </row>
     <row r="25" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="8">
         <v>63.4</v>
@@ -2733,7 +2714,7 @@
     </row>
     <row r="26" spans="1:10" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="8">
         <v>75.3</v>
@@ -2782,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="12">
         <v>9903</v>
@@ -2860,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="12">
         <v>15898</v>
@@ -2878,7 +2859,7 @@
         <v>1313</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I31" s="12">
         <v>1934</v>
@@ -3144,7 +3125,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="12">
         <v>416039</v>
@@ -3153,7 +3134,7 @@
         <v>816791</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" s="12">
         <v>11981</v>
@@ -3162,7 +3143,7 @@
         <v>17161</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I41" s="12">
         <v>24820</v>
@@ -3190,7 +3171,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="12">
         <v>401709</v>
@@ -3199,7 +3180,7 @@
         <v>786338</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="12">
         <v>11848</v>
@@ -3208,7 +3189,7 @@
         <v>16804</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43" s="12">
         <v>24382</v>
@@ -3222,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="12">
         <v>14330</v>
@@ -3240,7 +3221,7 @@
         <v>357</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" s="12">
         <v>438</v>
@@ -3250,54 +3231,54 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="C46" s="8">
         <v>132032.1</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F46" s="8">
         <v>3425</v>
       </c>
       <c r="G46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="I46" s="8">
         <v>7534.1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="8">
         <v>19.5</v>
@@ -3306,7 +3287,7 @@
         <v>15.8</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E47" s="8">
         <v>12.4</v>
@@ -3315,7 +3296,7 @@
         <v>23.4</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H47" s="8">
         <v>12.8</v>
@@ -3324,7 +3305,7 @@
         <v>16.2</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3333,7 @@
         <v>9.9</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" s="8">
         <v>5.2</v>
@@ -3361,7 +3342,7 @@
         <v>11.6</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H49" s="8">
         <v>5</v>
@@ -3370,7 +3351,7 @@
         <v>7.1</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3384,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" s="8">
         <v>6.3</v>
@@ -3393,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H50" s="8">
         <v>3.2</v>
@@ -3402,90 +3383,90 @@
         <v>6.8</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
       <c r="J51" s="35"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="F52" s="8">
         <v>48451.8</v>
       </c>
       <c r="G52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="I52" s="8">
         <v>128007.9</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="C53" s="8">
         <v>126450.7</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="F53" s="8">
         <v>3097</v>
       </c>
       <c r="G53" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="I53" s="8">
         <v>5509.5</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" s="8">
         <v>60</v>
@@ -3517,7 +3498,7 @@
     </row>
     <row r="55" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="8">
         <v>25.9</v>
@@ -3548,25 +3529,25 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="33"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
     </row>
     <row r="57" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="C57" s="12">
         <v>85738</v>
@@ -3575,7 +3556,7 @@
         <v>81239</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="12">
         <v>4053</v>
@@ -3584,7 +3565,7 @@
         <v>3843</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I57" s="12">
         <v>11252</v>
@@ -3594,22 +3575,22 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="33"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
     </row>
     <row r="59" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3658,28 +3639,28 @@
         <v>17</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="D61" s="8">
         <v>572934.30000000005</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="G61" s="8">
         <v>43656.5</v>
       </c>
       <c r="H61" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="J61" s="9">
         <v>112392.7</v>
@@ -3690,10 +3671,10 @@
         <v>21</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D62" s="8">
         <v>71664.5</v>
@@ -3702,16 +3683,16 @@
         <v>810.5</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G62" s="8">
         <v>266.8</v>
       </c>
       <c r="H62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I62" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="J62" s="9">
         <v>8506.5</v>
@@ -3722,16 +3703,16 @@
         <v>22</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D63" s="8">
         <v>19119</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>43</v>
@@ -3740,44 +3721,44 @@
         <v>2493.4</v>
       </c>
       <c r="H63" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="J63" s="9">
         <v>3500.1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="28"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="31"/>
     </row>
     <row r="65" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="D65" s="8">
         <v>18443.5</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F65" s="8">
         <v>1874.7</v>
@@ -3797,7 +3778,7 @@
     </row>
     <row r="66" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="8">
         <v>358.5</v>
@@ -3832,7 +3813,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="12">
         <v>7492</v>
@@ -3893,7 +3874,7 @@
     </row>
     <row r="69" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3907,7 +3888,7 @@
     </row>
     <row r="70" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>19</v>
@@ -3939,7 +3920,7 @@
     </row>
     <row r="71" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="8">
         <v>32.299999999999997</v>
@@ -4038,7 +4019,7 @@
         <v>13040.1</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I74" s="8">
         <v>27869.4</v>
@@ -4049,7 +4030,7 @@
     </row>
     <row r="75" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="8">
         <v>100.9</v>
@@ -4081,10 +4062,10 @@
     </row>
     <row r="76" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="C76" s="8">
         <v>5397.1</v>
@@ -4159,7 +4140,7 @@
     </row>
     <row r="79" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -4187,7 +4168,7 @@
     </row>
     <row r="81" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -4201,7 +4182,7 @@
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
@@ -4215,7 +4196,7 @@
     </row>
     <row r="83" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
@@ -4229,7 +4210,7 @@
     </row>
     <row r="84" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
@@ -4243,7 +4224,7 @@
     </row>
     <row r="85" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
@@ -4257,7 +4238,7 @@
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
@@ -4271,7 +4252,7 @@
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
@@ -4290,10 +4271,9 @@
     <row r="92" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4303,14 +4283,14 @@
     <mergeCell ref="A56:J56"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A87:J87"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="A64:J64"/>
     <mergeCell ref="A82:J82"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A87:J87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
